--- a/trunk/my doc/soft99.xlsx
+++ b/trunk/my doc/soft99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,15 +118,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光鏡面去小傷痕軟蠟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蠟、矽油、樹脂、超微粒子研磨劑、石油類溶劑36%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除傷鏡面復活蠟</t>
   </si>
   <si>
     <t>顏料</t>
@@ -285,12 +278,144 @@
     <t>光澤向上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>填補</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固蠟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光輝固蠟(各種顏色、銀粉漆車適用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蠟、矽油、樹脂、石油類溶劑(80%)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟蠟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF2B445E"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>光輝軟蠟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF2B445E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF2B445E"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>各種顏色、銀粉漆車適用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF2B445E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠟、矽油、樹脂、石油類溶劑(41%)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡艷固蠟(淺色車用，深色車用)</t>
+  </si>
+  <si>
+    <t>蠟、樹脂、石油類溶劑(68%)。</t>
+  </si>
+  <si>
+    <t>激防水增艷汽車蠟</t>
+  </si>
+  <si>
+    <t>棕櫚蠟、蠟、樹脂、石油系溶劑(59%)。</t>
+  </si>
+  <si>
+    <t>覆蓋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除傷鏡面復活蠟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光鏡面去小傷痕軟蠟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +466,21 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF2B445E"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,6 +496,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCC2A7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,149 +636,126 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,11 +763,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,6 +1505,226 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2457450" y="6629400"/>
+          <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="http://www.soft99.com.tw/images/product_images/sthumb_images/368_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="9563100"/>
+          <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="http://www.soft99.com.tw/images/product_images/sthumb_images/367_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="10334625"/>
+          <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="http://www.soft99.com.tw/images/product_images/sthumb_images/335_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="10334625"/>
+          <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="http://www.soft99.com.tw/images/product_images/sthumb_images/333_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="11077575"/>
           <a:ext cx="666750" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1665,33 +2035,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="21" customWidth="1"/>
     <col min="5" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="11" width="3.75" style="1" customWidth="1"/>
     <col min="12" max="14" width="10.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="39.875" customWidth="1"/>
-    <col min="19" max="19" width="6.375" customWidth="1"/>
-    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="16" max="19" width="4.125" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="39.875" customWidth="1"/>
+    <col min="22" max="22" width="6.375" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1710,27 +2082,34 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="34" t="s">
+      <c r="V1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="23"/>
+      <c r="X1" s="22"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1738,590 +2117,907 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="30"/>
+    </row>
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="31"/>
+      <c r="I3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="33" t="s">
-        <v>45</v>
+    <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="6">
+        <v>270</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" ref="W4:W19" si="0">ROUND(X4/V4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="5">
-        <v>270</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" ref="T4:T15" si="0">ROUND(U4/S4,1)</f>
-        <v>2</v>
-      </c>
-      <c r="U4" s="4">
-        <v>540</v>
+    <row r="5" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5">
+        <v>180</v>
+      </c>
+      <c r="W5" s="5">
+        <f>ROUND(X5/V5,1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X5" s="5">
+        <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4">
-        <v>180</v>
-      </c>
-      <c r="T5" s="4">
-        <f>ROUND(U5/S5,1)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U5" s="4">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
         <v>200</v>
       </c>
-      <c r="T6" s="4">
+      <c r="W6" s="5">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="U6" s="18">
+      <c r="X6" s="17">
         <v>575</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4">
+      <c r="B7" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
         <v>100</v>
       </c>
-      <c r="T7" s="4">
+      <c r="W7" s="5">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="U7" s="4">
+      <c r="X7" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5">
         <v>200</v>
       </c>
-      <c r="T8" s="4">
+      <c r="W8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U8" s="4">
+      <c r="X8" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="4" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="9">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="9">
         <v>220</v>
       </c>
-      <c r="T9" s="4">
+      <c r="W9" s="5">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="U9" s="4">
+      <c r="X9" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="3"/>
+    <row r="10" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17">
+        <v>36</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16">
         <v>100</v>
       </c>
-      <c r="T10" s="17">
+      <c r="W10" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="U10" s="9">
+      <c r="X10" s="9">
         <v>1750</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="3"/>
+    <row r="11" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17">
+        <v>36</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16">
         <v>100</v>
       </c>
-      <c r="T11" s="17">
+      <c r="W11" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="U11" s="9">
+      <c r="X11" s="9">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+    <row r="12" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4">
+      <c r="Q12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5">
         <v>50</v>
       </c>
-      <c r="T12" s="4">
+      <c r="W12" s="5">
         <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
-      <c r="U12" s="18">
+      <c r="X12" s="17">
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="24" t="s">
+    <row r="13" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38">
+      <c r="P13" s="37"/>
+      <c r="Q13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37">
         <v>250</v>
       </c>
-      <c r="T13" s="38">
+      <c r="W13" s="37">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U13" s="38">
+      <c r="X13" s="37">
         <v>615</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+    <row r="14" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="18">
+      <c r="Q14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="17">
         <v>300</v>
       </c>
-      <c r="T14" s="18">
+      <c r="W14" s="17">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="U14" s="18">
+      <c r="X14" s="17">
         <v>690</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="20" t="s">
+    <row r="15" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="18">
+      <c r="Q15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="17">
         <v>300</v>
       </c>
-      <c r="T15" s="18">
+      <c r="W15" s="17">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U15" s="18">
+      <c r="X15" s="17">
         <v>750</v>
       </c>
     </row>
+    <row r="16" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="26"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="17">
+        <v>200</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="X16" s="17">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="26"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="17">
+        <v>200</v>
+      </c>
+      <c r="W17" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="X17" s="17">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="26"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="17">
+        <v>200</v>
+      </c>
+      <c r="W18" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="X18" s="17">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="26"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="17">
+        <v>200</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="X19" s="17">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="31">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="D1:N1"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="O1:O3"/>
-    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="U1:U3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="T1:T3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>

--- a/trunk/my doc/soft99.xlsx
+++ b/trunk/my doc/soft99.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,12 +410,83 @@
     <t>光鏡面去小傷痕軟蠟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>艷王固蠟</t>
+  </si>
+  <si>
+    <t>蠟、樹脂、石油類溶劑(66%)</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑水力半固蠟</t>
+  </si>
+  <si>
+    <t>３個月</t>
+  </si>
+  <si>
+    <t>SG樹脂和微米LF成份</t>
+  </si>
+  <si>
+    <t>激艷固蠟</t>
+  </si>
+  <si>
+    <t>巴西天然棕櫚蠟、合成樹脂、矽油、石油系溶劑。</t>
+  </si>
+  <si>
+    <t>年間防水固蠟(白)</t>
+  </si>
+  <si>
+    <t>氟素樹脂、蠟、石油類溶劑</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超防水固蠟(白色車用)</t>
+  </si>
+  <si>
+    <t>超防水樹脂FSI</t>
+  </si>
+  <si>
+    <r>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>蠟、樹脂、石油類溶劑</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +551,12 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006400"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -642,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,23 +732,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,116 +843,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,13 +1669,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1726,6 +1812,281 @@
         <a:xfrm>
           <a:off x="2457450" y="11077575"/>
           <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="http://www.soft99.com.tw/images/product_images/info_images/362_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="11820525"/>
+          <a:ext cx="723900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="http://www.soft99.com.tw/images/product_images/info_images/361_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="12563475"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="http://www.soft99.com.tw/images/product_images/info_images/310_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="13306425"/>
+          <a:ext cx="704850" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="http://www.soft99.com.tw/images/product_images/info_images/234_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="14049375"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable=""/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="http://www.soft99.com.tw/images/product_images/info_images/222_0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="14792325"/>
+          <a:ext cx="704850" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,20 +2396,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="14" customWidth="1"/>
     <col min="5" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="11" width="3.75" style="1" customWidth="1"/>
     <col min="12" max="14" width="10.125" style="1" customWidth="1"/>
@@ -2060,968 +2421,1184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="3" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="22"/>
+      <c r="X1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="3" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="30"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="47"/>
     </row>
     <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="25" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="4" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5" t="s">
+      <c r="E4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="4" t="s">
+      <c r="P4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>270</v>
       </c>
-      <c r="W4" s="5">
-        <f t="shared" ref="W4:W19" si="0">ROUND(X4/V4,1)</f>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W24" si="0">ROUND(X4/V4,1)</f>
         <v>2</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="17" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="26" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>180</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <f>ROUND(X5/V5,1)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="26" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>200</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="11">
         <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="17" t="s">
+      <c r="E7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="26" t="s">
+      <c r="P7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
         <v>100</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="17" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="26" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
         <v>200</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="5" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="26" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="9">
+      <c r="U9" s="4"/>
+      <c r="V9" s="8">
         <v>220</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="8" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="26" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16">
+      <c r="U10" s="10"/>
+      <c r="V10" s="10">
         <v>100</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="8">
         <v>1750</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="8" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="26" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16">
+      <c r="U11" s="10"/>
+      <c r="V11" s="10">
         <v>100</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="8">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="8" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="26" t="s">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
         <v>50</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="11">
         <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="4" t="s">
+      <c r="P13" s="21"/>
+      <c r="Q13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37">
+      <c r="U13" s="21"/>
+      <c r="V13" s="21">
         <v>250</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="21">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="21">
         <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="8" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="4" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="17">
+      <c r="U14" s="4"/>
+      <c r="V14" s="11">
         <v>300</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="11">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="11">
         <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="8" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="26" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="17">
+      <c r="U15" s="4"/>
+      <c r="V15" s="11">
         <v>300</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="11">
         <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="46" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="17">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="18"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="11">
         <v>200</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="11">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="11">
         <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="8" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="17">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="18"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="11">
         <v>200</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="11">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="11">
         <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="8" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="17">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="18"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="11">
         <v>200</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="11">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="11">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="11">
+        <v>300</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="X19" s="11">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="V20" s="11">
+        <v>300</v>
+      </c>
+      <c r="W20" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="X20" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="11">
+        <v>300</v>
+      </c>
+      <c r="W21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="X21" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="11">
+        <v>200</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="X22" s="11">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="V23" s="11">
+        <v>300</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="X23" s="11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B24" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="19" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="46" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="26"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="17">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="18"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="11">
         <v>200</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W24" s="11">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X24" s="11">
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A1:A3"/>
+  <mergeCells count="35">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E23:H23"/>
     <mergeCell ref="W1:X2"/>
     <mergeCell ref="V1:V3"/>
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="U1:U3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
